--- a/input/emissions-inventories/Argentina/Argentina_Translation.xlsx
+++ b/input/emissions-inventories/Argentina/Argentina_Translation.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bolt753\Documents\GitHub\CEDS\input\emissions-inventories\Argentina\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35340" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -132,9 +130,6 @@
   </si>
   <si>
     <t>Marine international (1A3di_International-shipping)</t>
-  </si>
-  <si>
-    <t>Domestic navigation (1A3dii_Domestic-naviation [shipping])</t>
   </si>
   <si>
     <t>Other type of transportation (1A3eii_Other-transp)</t>
@@ -504,6 +499,9 @@
   </si>
   <si>
     <t>Spanish</t>
+  </si>
+  <si>
+    <t>Domestic navigation (1A3dii_Domestic-navigation [shipping])</t>
   </si>
 </sst>
 </file>
@@ -664,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,7 +697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -886,1109 +884,1114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="61.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="51.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B123" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B128" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B129" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B147" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B150" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B151" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B152" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B153" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B166" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B167" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B177" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B186" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B187" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B192" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B197" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B199" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B203" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
+    <row r="205" spans="1:2">
+      <c r="A205" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B205" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+    <row r="207" spans="1:2">
+      <c r="A207" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="B207" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>